--- a/Genres-Titles-Act-dates.xlsx
+++ b/Genres-Titles-Act-dates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Professional Practice 1\Profesional-Practice-Group-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1658,14 +1663,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,105 +1701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1808,45 +1708,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1855,228 +1718,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2104,249 +1781,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2428,7 +1866,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2446,72 +1884,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2769,48 +2164,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.8518518518519" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5740740740741" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.13888888888889" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.8518518518519" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1388888888889" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.8518518518519" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.13888888888889" style="5" customWidth="1"/>
-    <col min="8" max="8" width="59.1388888888889" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.4259259259259" style="5" customWidth="1"/>
-    <col min="10" max="10" width="31.1388888888889" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.13888888888889" style="5" customWidth="1"/>
-    <col min="12" max="12" width="64.287037037037" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.1388888888889" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="64.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="18" style="5" customWidth="1"/>
-    <col min="15" max="15" width="5.13888888888889" style="5" customWidth="1"/>
-    <col min="16" max="16" width="32.4259259259259" style="5" customWidth="1"/>
-    <col min="17" max="17" width="41.1388888888889" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.8518518518519" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.13888888888889" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="5" customWidth="1"/>
     <col min="20" max="20" width="67" style="5" customWidth="1"/>
-    <col min="21" max="21" width="41.287037037037" style="5" customWidth="1"/>
-    <col min="22" max="22" width="32.1388888888889" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.13888888888889" style="5" customWidth="1"/>
+    <col min="21" max="21" width="41.28515625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="32.140625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" style="5" customWidth="1"/>
     <col min="24" max="24" width="76" style="5" customWidth="1"/>
     <col min="25" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2243,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:24">
+    <row r="2" spans="1:24" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2994,7 +2389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:24">
+    <row r="4" spans="1:24" ht="30">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -3068,7 +2463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="30">
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
@@ -3142,7 +2537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="30">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -3216,7 +2611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:24">
+    <row r="7" spans="1:24" ht="30">
       <c r="A7" s="12" t="s">
         <v>78</v>
       </c>
@@ -3290,7 +2685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:24">
+    <row r="8" spans="1:24" ht="45">
       <c r="A8" s="17" t="s">
         <v>95</v>
       </c>
@@ -3434,7 +2829,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:24">
+    <row r="10" spans="1:24" ht="30">
       <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
@@ -3504,7 +2899,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:24">
+    <row r="11" spans="1:24" ht="30">
       <c r="A11" s="17" t="s">
         <v>144</v>
       </c>
@@ -3650,7 +3045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" ht="43.2" spans="1:24">
+    <row r="13" spans="1:24" ht="45">
       <c r="A13" s="17" t="s">
         <v>175</v>
       </c>
@@ -3724,7 +3119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="30">
       <c r="A14" s="17">
         <v>300</v>
       </c>
@@ -3798,7 +3193,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" ht="43.2" spans="1:24">
+    <row r="15" spans="1:24" ht="45">
       <c r="A15" s="12" t="s">
         <v>208</v>
       </c>
@@ -3926,7 +3321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="30">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -4151,7 +3546,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:24">
+    <row r="24" spans="1:24" ht="30">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -4230,40 +3625,40 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:24">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="N27" s="34"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:24">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:24">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="N29" s="34"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:24">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:24">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="N31" s="34"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:24">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -4276,7 +3671,7 @@
       <c r="D33"/>
       <c r="N33" s="34"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:14">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -4289,7 +3684,7 @@
       <c r="D35"/>
       <c r="N35" s="34"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:14">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -4302,7 +3697,7 @@
       <c r="D37"/>
       <c r="N37" s="34"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:14">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -4315,7 +3710,7 @@
       <c r="D39"/>
       <c r="N39" s="34"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:14">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -4328,7 +3723,7 @@
       <c r="D41"/>
       <c r="N41" s="34"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:14">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -4341,7 +3736,7 @@
       <c r="D43"/>
       <c r="N43" s="34"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:14">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -4354,7 +3749,7 @@
       <c r="D45"/>
       <c r="N45" s="34"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:14">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4367,7 +3762,7 @@
       <c r="D47"/>
       <c r="N47" s="34"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:14">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -4380,7 +3775,7 @@
       <c r="D49"/>
       <c r="N49" s="34"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:14">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4393,7 +3788,7 @@
       <c r="D51"/>
       <c r="N51" s="34"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:14">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4406,7 +3801,7 @@
       <c r="D53"/>
       <c r="N53" s="34"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:14">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4419,7 +3814,7 @@
       <c r="D55"/>
       <c r="N55" s="34"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:14">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4432,7 +3827,7 @@
       <c r="D57"/>
       <c r="N57" s="34"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:14">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4445,7 +3840,7 @@
       <c r="D59"/>
       <c r="N59" s="34"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:14">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -4458,7 +3853,7 @@
       <c r="D61"/>
       <c r="N61" s="34"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:14">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -4471,7 +3866,7 @@
       <c r="D63"/>
       <c r="N63" s="34"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:14">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -4484,7 +3879,7 @@
       <c r="D65"/>
       <c r="N65" s="34"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:14">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4497,7 +3892,7 @@
       <c r="D67"/>
       <c r="N67" s="34"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:14">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -4510,7 +3905,7 @@
       <c r="D69"/>
       <c r="N69" s="34"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:14">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -4523,55 +3918,55 @@
       <c r="D71"/>
       <c r="N71" s="34"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:14">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:14">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:14">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:14">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:14">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:14">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:14">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:14">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:14">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -5503,98 +4898,97 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="Alfred Hitchcock" tooltip="https://www.esquire.com/uk/culture/a17991/marli-renfro-psycho-body-double-shower-scene/"/>
-    <hyperlink ref="F4" r:id="rId1" display="Alfred Hitchcock" tooltip="https://www.esquire.com/uk/culture/a17991/marli-renfro-psycho-body-double-shower-scene/"/>
-    <hyperlink ref="E5" r:id="rId2" display="The Sixth Sense " tooltip="https://www.imdb.com/title/tt0167404/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F5" r:id="rId3" display="M. Night Shyamalan" tooltip="https://www.imdb.com/name/nm0796117/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E6" r:id="rId4" display="Inception" tooltip="https://www.imdb.com/title/tt1375666/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F6" r:id="rId5" display="Christopher Nolan " tooltip="https://www.imdb.com/name/nm0634240/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E7" r:id="rId6" display="Psycho " tooltip="https://www.imdb.com/title/tt0054215/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F7" r:id="rId7" display="Alfred Hitchcock " tooltip="https://www.imdb.com/name/nm0000033/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E8" r:id="rId8" display="The Departed " tooltip="https://www.imdb.com/title/tt0407887/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F8" r:id="rId9" display="Martin Scorsese " tooltip="https://www.imdb.com/name/nm0000217/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E9" r:id="rId10" display="Se7en " tooltip="https://www.imdb.com/title/tt0114369/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F9" r:id="rId11" display="David Fincher" tooltip="https://www.imdb.com/name/nm0000399/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E10" r:id="rId12" display="The Usual Suspects " tooltip="https://www.imdb.com/title/tt0114814/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F10" r:id="rId13" display="Bryan Singer" tooltip="https://www.imdb.com/name/nm0001741/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E11" r:id="rId14" display=" The Silence of the Lambs " tooltip="https://www.imdb.com/title/tt0102926/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F11" r:id="rId15" display="Jonathan Demme " tooltip="https://www.imdb.com/name/nm0001129/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E12" r:id="rId16" display="Snatch " tooltip="https://www.imdb.com/title/tt0208092/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F12" r:id="rId17" display="Guy Ritchie" tooltip="https://www.imdb.com/name/nm0005363/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E13" r:id="rId18" display="Reservoir Dogs" tooltip="https://www.imdb.com/title/tt0105236/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F13" r:id="rId19" display="Quentin Tarantino " tooltip="https://www.imdb.com/name/nm0000233/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E14" r:id="rId20" display="L.A. Confidential" tooltip="https://www.imdb.com/title/tt0119488/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F14" r:id="rId21" display="Curtis Hanson" tooltip="https://www.imdb.com/name/nm0000436/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="E15" r:id="rId22" display="Lock, Stock and Two Smoking Barrels" tooltip="https://www.imdb.com/title/tt0120735/?ref_=ttls_li_tt"/>
-    <hyperlink ref="F15" r:id="rId17" display="Guy Ritchie " tooltip="https://www.imdb.com/name/nm0005363/?ref_=ttls_li_dr_0"/>
-    <hyperlink ref="I3" r:id="rId23" display="MAD MAX: FURY ROAD" tooltip="https://www.rottentomatoes.com/m/mad_max_fury_road/"/>
-    <hyperlink ref="J3" r:id="rId24" display="George Miller" tooltip="https://www.rottentomatoes.com/celebrity/1042523-george_miller/"/>
-    <hyperlink ref="J4" r:id="rId25" display="Steven Spielberg" tooltip="https://www.rottentomatoes.com/celebrity/steven_spielberg/"/>
-    <hyperlink ref="L4" r:id="rId26" display="Drew Barrymore" tooltip="https://www.rottentomatoes.com/celebrity/drew_barrymore/"/>
-    <hyperlink ref="I5" r:id="rId27" display="METROPOLIS" tooltip="https://www.rottentomatoes.com/m/1013775-metropolis/"/>
-    <hyperlink ref="J5" r:id="rId28" display="Fritz Lang" tooltip="https://www.rottentomatoes.com/celebrity/fritz_lang/"/>
-    <hyperlink ref="J6" r:id="rId29" display="Alfonso Cuarón" tooltip="https://www.rottentomatoes.com/celebrity/alfonso_cuaron/"/>
-    <hyperlink ref="I7" r:id="rId30" display="STAR WARS: THE LAST JEDI" tooltip="https://www.rottentomatoes.com/m/star_wars_the_last_jedi/"/>
-    <hyperlink ref="J7" r:id="rId31" display="Rian Johnson" tooltip="https://www.rottentomatoes.com/celebrity/1167238-rian_johnson/"/>
-    <hyperlink ref="I8" r:id="rId32" display="STAR WARS: EPISODE VII - THE FORCE AWAKENS " tooltip="https://www.rottentomatoes.com/m/star_wars_episode_vii_the_force_awakens/"/>
-    <hyperlink ref="J8" r:id="rId33" display="J.J. Abrams" tooltip="https://www.rottentomatoes.com/celebrity/jeffrey_abrams/"/>
-    <hyperlink ref="I10" r:id="rId34" display="STAR WARS: EPISODE IV - A NEW HOPE" tooltip="https://www.rottentomatoes.com/m/star_wars/"/>
-    <hyperlink ref="I12" r:id="rId35" display="THE TERMINATOR" tooltip="https://www.rottentomatoes.com/m/terminator/"/>
-    <hyperlink ref="J12" r:id="rId36" display="James Cameron" tooltip="https://www.rottentomatoes.com/celebrity/james_cameron/"/>
-    <hyperlink ref="I13" r:id="rId37" display="STAR WARS: EPISODE V - THE EMPIRE STRIKES BACK" tooltip="https://www.rottentomatoes.com/m/empire_strikes_back/"/>
-    <hyperlink ref="J13" r:id="rId38" display="Irvin Kershner" tooltip="https://www.rottentomatoes.com/celebrity/irvin_kershner/"/>
-    <hyperlink ref="L14" r:id="rId39" display=" Sigourney Weaver" tooltip="https://www.rottentomatoes.com/celebrity/sigourney_weaver/"/>
-    <hyperlink ref="I15" r:id="rId40" display="INVASION OF THE BODY SNATCHERS " tooltip="https://www.rottentomatoes.com/m/1010678-invasion_of_the_body_snatchers/"/>
-    <hyperlink ref="J15" r:id="rId41" display="Don Siegel" tooltip="https://www.rottentomatoes.com/celebrity/don_siegel/"/>
-    <hyperlink ref="I17" r:id="rId42" display="BLADE RUNNER 2049" tooltip="https://www.rottentomatoes.com/m/blade_runner_2049/"/>
-    <hyperlink ref="J17" r:id="rId43" display=" Denis Villeneuve" tooltip="https://www.rottentomatoes.com/celebrity/denis-villeneuve/"/>
-    <hyperlink ref="I18" r:id="rId44" display="JURASSIC PARK" tooltip="https://www.rottentomatoes.com/m/jurassic_park/"/>
-    <hyperlink ref="J18" r:id="rId25" display="Steven Spielberg" tooltip="https://www.rottentomatoes.com/celebrity/steven_spielberg/"/>
-    <hyperlink ref="J19" r:id="rId45" display="Stanley Kubrick" tooltip="https://www.rottentomatoes.com/celebrity/stanley_kubrick/"/>
-    <hyperlink ref="J20" r:id="rId46" display="Ridley Scott" tooltip="https://www.rottentomatoes.com/celebrity/director-ridley-scott/"/>
-    <hyperlink ref="I23" r:id="rId47" display="A CLOCKWORK ORANGE" tooltip="https://www.rottentomatoes.com/m/clockwork_orange/"/>
-    <hyperlink ref="J23" r:id="rId45" display="Stanley Kubrick" tooltip="https://www.rottentomatoes.com/celebrity/stanley_kubrick/"/>
-    <hyperlink ref="I24" r:id="rId48" display="STAR TREK INTO DARKNESS" tooltip="https://www.rottentomatoes.com/m/star_trek_into_darkness/"/>
-    <hyperlink ref="J24" r:id="rId33" display="J.J. Abrams" tooltip="https://www.rottentomatoes.com/celebrity/jeffrey_abrams/"/>
-    <hyperlink ref="I25" r:id="rId49" display="STAR TREK BEYOND " tooltip="https://www.rottentomatoes.com/m/star_trek_beyond/"/>
-    <hyperlink ref="J25" r:id="rId50" display="Justin Lin" tooltip="https://www.rottentomatoes.com/celebrity/justin_lin/"/>
-    <hyperlink ref="P15" r:id="rId51" display="Jamie Lee Curtis" tooltip="Halloween: Jamie Lee Curtis and the Trauma of Laurie Strode"/>
-    <hyperlink ref="P16" r:id="rId52" display=" Bill Skarsgard" tooltip="Stephen King's It: Bill Skarsgard on Becoming Pennywise the Clown"/>
-    <hyperlink ref="U6" r:id="rId53" display="Die Hard"/>
-    <hyperlink ref="U7" r:id="rId54" display="Indiana Jones and the Raiders of the Lost Ark"/>
-    <hyperlink ref="V19" r:id="rId55" display="Kenneth Branagh"/>
-    <hyperlink ref="V20" r:id="rId56" display="Joe Johnston" tooltip="Joe Johnston"/>
-    <hyperlink ref="V21" r:id="rId57" display="James Gunn"/>
-    <hyperlink ref="V22" r:id="rId58" display="Peyton Reed"/>
-    <hyperlink ref="V23" r:id="rId59" display="Scott Derrickson"/>
-    <hyperlink ref="X25" r:id="rId60" display="Chadwick Boseman"/>
-    <hyperlink ref="V24" r:id="rId61" display="Jon Watts "/>
-    <hyperlink ref="T4" r:id="rId62" display=" Macaulay Culkin"/>
-    <hyperlink ref="Q5" r:id="rId63" display="Harry Potter and the Philosopher's Stone"/>
-    <hyperlink ref="Q6" r:id="rId64" display="The Princess Bride"/>
-    <hyperlink ref="R6" r:id="rId65" display="Rob Reiner"/>
-    <hyperlink ref="Q7" r:id="rId66" display="Beauty and the Beast "/>
-    <hyperlink ref="R7" r:id="rId67" display="Bill Condon"/>
-    <hyperlink ref="Q8" r:id="rId68" display="Maleficent "/>
-    <hyperlink ref="R8" r:id="rId69" display="Robert Stromberg"/>
-    <hyperlink ref="Q9" r:id="rId70" display="Night at the Museum "/>
-    <hyperlink ref="R9" r:id="rId71" display="Shawn Levy"/>
-    <hyperlink ref="Q10" r:id="rId72" display="Where the Wild Things Are"/>
-    <hyperlink ref="R10" r:id="rId73" display="Spike Jonze"/>
-    <hyperlink ref="Q11" r:id="rId74" display="Charlie and the Chocolate Factory "/>
-    <hyperlink ref="R11" r:id="rId75" display="Tim Burton"/>
-    <hyperlink ref="Q12" r:id="rId76" display="Alice in Wonderland"/>
-    <hyperlink ref="R12" r:id="rId75" display="Tim Burton "/>
-    <hyperlink ref="Q13" r:id="rId77" display=" Lemony Snicket's A Series of Unfortunate Events"/>
-    <hyperlink ref="R13" r:id="rId78" display="Brad Silberling "/>
-    <hyperlink ref="Q14" r:id="rId79" display="The Golden Compass"/>
-    <hyperlink ref="R14" r:id="rId80" display="Chris Weitz "/>
-    <hyperlink ref="Q16" r:id="rId81" display="Men in Black"/>
-    <hyperlink ref="R16" r:id="rId82" display="Barry Sonnenfeld "/>
-    <hyperlink ref="R15" r:id="rId83" display="Gore Verbinski"/>
+    <hyperlink ref="F3" r:id="rId1" tooltip="https://www.esquire.com/uk/culture/a17991/marli-renfro-psycho-body-double-shower-scene/"/>
+    <hyperlink ref="F4" r:id="rId2" tooltip="https://www.esquire.com/uk/culture/a17991/marli-renfro-psycho-body-double-shower-scene/"/>
+    <hyperlink ref="E5" r:id="rId3" tooltip="https://www.imdb.com/title/tt0167404/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F5" r:id="rId4" tooltip="https://www.imdb.com/name/nm0796117/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E6" r:id="rId5" tooltip="https://www.imdb.com/title/tt1375666/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F6" r:id="rId6" tooltip="https://www.imdb.com/name/nm0634240/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E7" r:id="rId7" tooltip="https://www.imdb.com/title/tt0054215/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F7" r:id="rId8" tooltip="https://www.imdb.com/name/nm0000033/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E8" r:id="rId9" tooltip="https://www.imdb.com/title/tt0407887/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F8" r:id="rId10" tooltip="https://www.imdb.com/name/nm0000217/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E9" r:id="rId11" tooltip="https://www.imdb.com/title/tt0114369/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F9" r:id="rId12" tooltip="https://www.imdb.com/name/nm0000399/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E10" r:id="rId13" tooltip="https://www.imdb.com/title/tt0114814/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F10" r:id="rId14" tooltip="https://www.imdb.com/name/nm0001741/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E11" r:id="rId15" tooltip="https://www.imdb.com/title/tt0102926/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F11" r:id="rId16" tooltip="https://www.imdb.com/name/nm0001129/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E12" r:id="rId17" tooltip="https://www.imdb.com/title/tt0208092/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F12" r:id="rId18" tooltip="https://www.imdb.com/name/nm0005363/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E13" r:id="rId19" tooltip="https://www.imdb.com/title/tt0105236/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F13" r:id="rId20" tooltip="https://www.imdb.com/name/nm0000233/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E14" r:id="rId21" tooltip="https://www.imdb.com/title/tt0119488/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F14" r:id="rId22" tooltip="https://www.imdb.com/name/nm0000436/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="E15" r:id="rId23" tooltip="https://www.imdb.com/title/tt0120735/?ref_=ttls_li_tt"/>
+    <hyperlink ref="F15" r:id="rId24" tooltip="https://www.imdb.com/name/nm0005363/?ref_=ttls_li_dr_0"/>
+    <hyperlink ref="I3" r:id="rId25" tooltip="https://www.rottentomatoes.com/m/mad_max_fury_road/"/>
+    <hyperlink ref="J3" r:id="rId26" tooltip="https://www.rottentomatoes.com/celebrity/1042523-george_miller/"/>
+    <hyperlink ref="J4" r:id="rId27" tooltip="https://www.rottentomatoes.com/celebrity/steven_spielberg/"/>
+    <hyperlink ref="L4" r:id="rId28" tooltip="https://www.rottentomatoes.com/celebrity/drew_barrymore/"/>
+    <hyperlink ref="I5" r:id="rId29" tooltip="https://www.rottentomatoes.com/m/1013775-metropolis/"/>
+    <hyperlink ref="J5" r:id="rId30" tooltip="https://www.rottentomatoes.com/celebrity/fritz_lang/"/>
+    <hyperlink ref="J6" r:id="rId31" tooltip="https://www.rottentomatoes.com/celebrity/alfonso_cuaron/"/>
+    <hyperlink ref="I7" r:id="rId32" tooltip="https://www.rottentomatoes.com/m/star_wars_the_last_jedi/"/>
+    <hyperlink ref="J7" r:id="rId33" tooltip="https://www.rottentomatoes.com/celebrity/1167238-rian_johnson/"/>
+    <hyperlink ref="I8" r:id="rId34" tooltip="https://www.rottentomatoes.com/m/star_wars_episode_vii_the_force_awakens/"/>
+    <hyperlink ref="J8" r:id="rId35" tooltip="https://www.rottentomatoes.com/celebrity/jeffrey_abrams/"/>
+    <hyperlink ref="I10" r:id="rId36" tooltip="https://www.rottentomatoes.com/m/star_wars/"/>
+    <hyperlink ref="I12" r:id="rId37" tooltip="https://www.rottentomatoes.com/m/terminator/"/>
+    <hyperlink ref="J12" r:id="rId38" tooltip="https://www.rottentomatoes.com/celebrity/james_cameron/"/>
+    <hyperlink ref="I13" r:id="rId39" tooltip="https://www.rottentomatoes.com/m/empire_strikes_back/"/>
+    <hyperlink ref="J13" r:id="rId40" tooltip="https://www.rottentomatoes.com/celebrity/irvin_kershner/"/>
+    <hyperlink ref="L14" r:id="rId41" tooltip="https://www.rottentomatoes.com/celebrity/sigourney_weaver/"/>
+    <hyperlink ref="I15" r:id="rId42" tooltip="https://www.rottentomatoes.com/m/1010678-invasion_of_the_body_snatchers/"/>
+    <hyperlink ref="J15" r:id="rId43" tooltip="https://www.rottentomatoes.com/celebrity/don_siegel/"/>
+    <hyperlink ref="I17" r:id="rId44" tooltip="https://www.rottentomatoes.com/m/blade_runner_2049/"/>
+    <hyperlink ref="J17" r:id="rId45" tooltip="https://www.rottentomatoes.com/celebrity/denis-villeneuve/"/>
+    <hyperlink ref="I18" r:id="rId46" tooltip="https://www.rottentomatoes.com/m/jurassic_park/"/>
+    <hyperlink ref="J18" r:id="rId47" tooltip="https://www.rottentomatoes.com/celebrity/steven_spielberg/"/>
+    <hyperlink ref="J19" r:id="rId48" tooltip="https://www.rottentomatoes.com/celebrity/stanley_kubrick/"/>
+    <hyperlink ref="J20" r:id="rId49" tooltip="https://www.rottentomatoes.com/celebrity/director-ridley-scott/"/>
+    <hyperlink ref="I23" r:id="rId50" tooltip="https://www.rottentomatoes.com/m/clockwork_orange/"/>
+    <hyperlink ref="J23" r:id="rId51" tooltip="https://www.rottentomatoes.com/celebrity/stanley_kubrick/"/>
+    <hyperlink ref="I24" r:id="rId52" tooltip="https://www.rottentomatoes.com/m/star_trek_into_darkness/"/>
+    <hyperlink ref="J24" r:id="rId53" tooltip="https://www.rottentomatoes.com/celebrity/jeffrey_abrams/"/>
+    <hyperlink ref="I25" r:id="rId54" tooltip="https://www.rottentomatoes.com/m/star_trek_beyond/"/>
+    <hyperlink ref="J25" r:id="rId55" tooltip="https://www.rottentomatoes.com/celebrity/justin_lin/"/>
+    <hyperlink ref="P15" r:id="rId56" tooltip="Halloween: Jamie Lee Curtis and the Trauma of Laurie Strode"/>
+    <hyperlink ref="P16" r:id="rId57" tooltip="Stephen King's It: Bill Skarsgard on Becoming Pennywise the Clown"/>
+    <hyperlink ref="U6" r:id="rId58"/>
+    <hyperlink ref="U7" r:id="rId59"/>
+    <hyperlink ref="V19" r:id="rId60"/>
+    <hyperlink ref="V20" r:id="rId61" tooltip="Joe Johnston"/>
+    <hyperlink ref="V21" r:id="rId62"/>
+    <hyperlink ref="V22" r:id="rId63"/>
+    <hyperlink ref="V23" r:id="rId64"/>
+    <hyperlink ref="X25" r:id="rId65"/>
+    <hyperlink ref="V24" r:id="rId66"/>
+    <hyperlink ref="T4" r:id="rId67"/>
+    <hyperlink ref="Q5" r:id="rId68"/>
+    <hyperlink ref="Q6" r:id="rId69"/>
+    <hyperlink ref="R6" r:id="rId70"/>
+    <hyperlink ref="Q7" r:id="rId71"/>
+    <hyperlink ref="R7" r:id="rId72"/>
+    <hyperlink ref="Q8" r:id="rId73"/>
+    <hyperlink ref="R8" r:id="rId74"/>
+    <hyperlink ref="Q9" r:id="rId75"/>
+    <hyperlink ref="R9" r:id="rId76"/>
+    <hyperlink ref="Q10" r:id="rId77"/>
+    <hyperlink ref="R10" r:id="rId78"/>
+    <hyperlink ref="Q11" r:id="rId79"/>
+    <hyperlink ref="R11" r:id="rId80"/>
+    <hyperlink ref="Q12" r:id="rId81"/>
+    <hyperlink ref="R12" r:id="rId82"/>
+    <hyperlink ref="Q13" r:id="rId83"/>
+    <hyperlink ref="R13" r:id="rId84"/>
+    <hyperlink ref="Q14" r:id="rId85"/>
+    <hyperlink ref="R14" r:id="rId86"/>
+    <hyperlink ref="Q16" r:id="rId87"/>
+    <hyperlink ref="R16" r:id="rId88"/>
+    <hyperlink ref="R15" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>